--- a/biology/Écologie/Colin_Tudge/Colin_Tudge.xlsx
+++ b/biology/Écologie/Colin_Tudge/Colin_Tudge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colin Tudge (né le 22 avril 1943) est un écrivain et journaliste scientifique britannique. Biologiste de formation, il est l'auteur de nombreux ouvrages de vulgarisation sur l'alimentation, l'agriculture, la génétique et la diversité des espèces.
 </t>
